--- a/en/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Github\nablarch-document\en\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15BCB5-AE43-4D1C-83EF-CE83867A363B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54986E4-88B2-49C2-9EF8-D8EA16D2D731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="825" windowWidth="13245" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,16 +95,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35857</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -109,8 +119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="238126"/>
-          <a:ext cx="3438525" cy="5419724"/>
+          <a:off x="717175" y="237005"/>
+          <a:ext cx="3263153" cy="5670736"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -157,13 +167,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>74688</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68749</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -180,8 +190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="857250"/>
-          <a:ext cx="2181225" cy="514350"/>
+          <a:off x="1329747" y="851647"/>
+          <a:ext cx="1966296" cy="510988"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -221,13 +231,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -245,8 +255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686299" y="857249"/>
-          <a:ext cx="1600200" cy="514351"/>
+          <a:off x="4742390" y="848782"/>
+          <a:ext cx="1490134" cy="505885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -285,14 +295,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68749</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -312,8 +322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3590925" y="1114425"/>
-          <a:ext cx="1095374" cy="0"/>
+          <a:off x="3421549" y="1100667"/>
+          <a:ext cx="1320841" cy="1058"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -342,13 +352,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:colOff>161366</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -367,9 +377,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2500312" y="1371600"/>
-          <a:ext cx="1" cy="342900"/>
+        <a:xfrm>
+          <a:off x="2312895" y="1362635"/>
+          <a:ext cx="1" cy="340659"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -397,14 +407,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34460</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>108978</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -421,8 +431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352551" y="2743201"/>
-          <a:ext cx="2295524" cy="685800"/>
+          <a:off x="1289519" y="2725272"/>
+          <a:ext cx="2046753" cy="681317"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -462,14 +472,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170610</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152122</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -486,8 +496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409699" y="1714500"/>
-          <a:ext cx="2181226" cy="685800"/>
+          <a:off x="1246375" y="1703294"/>
+          <a:ext cx="2133041" cy="681318"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -527,13 +537,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -553,8 +563,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2500312" y="2400300"/>
-          <a:ext cx="1" cy="342901"/>
+          <a:off x="2312896" y="2384612"/>
+          <a:ext cx="0" cy="340660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -721,13 +731,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>74688</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68750</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -744,8 +754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="3771900"/>
-          <a:ext cx="2181226" cy="685800"/>
+          <a:off x="1329747" y="3747247"/>
+          <a:ext cx="1966297" cy="681318"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -775,7 +785,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Body error</a:t>
+            <a:t>Body</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -785,13 +795,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -811,8 +821,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2500313" y="3429001"/>
-          <a:ext cx="0" cy="342899"/>
+          <a:off x="2312896" y="3406589"/>
+          <a:ext cx="0" cy="340658"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -840,16 +850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170610</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9523</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>74688</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -867,12 +877,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="1409698" y="2057400"/>
-          <a:ext cx="1" cy="2057400"/>
+          <a:off x="1246375" y="2043952"/>
+          <a:ext cx="83372" cy="2043953"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -22860000000"/>
+            <a:gd name="adj1" fmla="val -274193"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -899,13 +909,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>74689</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68749</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -922,8 +932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="4800600"/>
-          <a:ext cx="2181224" cy="685800"/>
+          <a:off x="1329748" y="4769224"/>
+          <a:ext cx="1966295" cy="681317"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -964,13 +974,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>161367</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -989,9 +999,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2500312" y="4457700"/>
-          <a:ext cx="1" cy="342900"/>
+        <a:xfrm>
+          <a:off x="2312896" y="4428565"/>
+          <a:ext cx="0" cy="340659"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1412,11 +1422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/en/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Github\nablarch-document\en\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54986E4-88B2-49C2-9EF8-D8EA16D2D731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46579E55-2FF3-4E5B-9E92-AF2691FE8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,14 +592,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32809</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8468</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -616,8 +616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="2409825"/>
-          <a:ext cx="400050" cy="342900"/>
+          <a:off x="2454276" y="2387600"/>
+          <a:ext cx="348192" cy="331258"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,7 +785,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Body</a:t>
+            <a:t>Have Body?</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1087,6 +1087,216 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD87F2A-467D-4B42-98F1-155D9CA5AB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4742390" y="3812115"/>
+          <a:ext cx="1490134" cy="505885"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Next process.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68749</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BD3340-BF9D-4E05-A9C7-6D131A2AF6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421549" y="4064000"/>
+          <a:ext cx="1320841" cy="1058"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109010</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84668</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB99BF9-81FE-4D15-8E4C-30BD75DF22FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3275543" y="4191000"/>
+          <a:ext cx="348192" cy="331258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>

--- a/en/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Github\nablarch-document\en\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\nablarch\nablarch-document\en\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46579E55-2FF3-4E5B-9E92-AF2691FE8014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEE4F5-82A2-4C3C-9B94-D905C7472F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="1005" windowWidth="28800" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -101,8 +101,8 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>35857</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
@@ -119,8 +119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="717175" y="237005"/>
-          <a:ext cx="3263153" cy="5670736"/>
+          <a:off x="782543" y="236009"/>
+          <a:ext cx="5249957" cy="5637865"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -231,14 +231,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180968</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180969</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -255,8 +255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4742390" y="848782"/>
-          <a:ext cx="1490134" cy="505885"/>
+          <a:off x="6213468" y="848782"/>
+          <a:ext cx="1608668" cy="505885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -301,8 +301,8 @@
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180968</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -322,8 +322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3421549" y="1100667"/>
-          <a:ext cx="1320841" cy="1058"/>
+          <a:off x="3688249" y="1100667"/>
+          <a:ext cx="2525219" cy="1058"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1098,102 +1098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD87F2A-467D-4B42-98F1-155D9CA5AB91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4742390" y="3812115"/>
-          <a:ext cx="1490134" cy="505885"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>Next process.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>68749</xdr:colOff>
+      <xdr:colOff>68750</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52914</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>1058</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1205,13 +1119,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="26" idx="1"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3421549" y="4064000"/>
-          <a:ext cx="1320841" cy="1058"/>
+          <a:off x="3688250" y="4064000"/>
+          <a:ext cx="386331" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1299,6 +1215,76 @@
             <a:t>Yes</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52914</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21158</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A00659B-DA13-444D-B2F2-0020369AB50F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4074581" y="3725335"/>
+          <a:ext cx="1375827" cy="677334"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Nothing to do</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
@@ -1632,9 +1618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
